--- a/data/trans_orig/LAWTONBRODY-Clase-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONBRODY-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.835606201552287</v>
+        <v>6.829063992858813</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.346331762778618</v>
+        <v>6.238606197032572</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.133564985467371</v>
+        <v>7.097775465147886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.489650465014505</v>
+        <v>7.484660798069434</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.155162602701806</v>
+        <v>6.128812053071574</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.638326780200026</v>
+        <v>5.558194513913625</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.79996412890381</v>
+        <v>5.771375003942209</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.844437984210331</v>
+        <v>6.772105100760418</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.814861769141618</v>
+        <v>6.770967776852866</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.556336412060359</v>
+        <v>6.593657903150342</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.889149765621381</v>
+        <v>6.909756451170682</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>7.317059268122128</v>
+        <v>7.289136125484903</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.712382834004906</v>
+        <v>7.691598369838708</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.804475106697249</v>
+        <v>7.732985477330137</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.8050628236285</v>
+        <v>7.820942157187494</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.814051021962292</v>
+        <v>7.800978789297538</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.307111416187526</v>
+        <v>7.317476048377795</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.947582329101807</v>
+        <v>7.943675105720232</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.599548671278312</v>
+        <v>7.610082989943769</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.577983272169279</v>
+        <v>7.568634033384542</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.502939429664724</v>
+        <v>7.462296377299002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.723445523860551</v>
+        <v>7.708988607704516</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.655002272600131</v>
+        <v>7.669878636355786</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>7.678565490890772</v>
+        <v>7.674971988688573</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>6.584213112386396</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>7.040865570571174</v>
+        <v>7.040865570571175</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>7.224419481958781</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.771568855665437</v>
+        <v>6.758276113280738</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.010171256241523</v>
+        <v>5.928382528108657</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.758966207364141</v>
+        <v>6.711393070750233</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.143915154699</v>
+        <v>7.118638082618478</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.867775314708458</v>
+        <v>5.751876841243697</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>4.399599213600565</v>
+        <v>4.415203817721836</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>4.897509720990646</v>
+        <v>4.81285622786057</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.445525993379667</v>
+        <v>6.505903968781479</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>6.681525809635999</v>
+        <v>6.73379983457368</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6.054046522306005</v>
+        <v>5.901745742255261</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6.562862146440012</v>
+        <v>6.55539067166926</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>7.031112107686874</v>
+        <v>7.016974831012528</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.683703129841383</v>
+        <v>7.668528023197127</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.638221664986772</v>
+        <v>7.623347440755426</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.62663061777255</v>
+        <v>7.612002740550591</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.623290543145234</v>
+        <v>7.63398376779227</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.773790974676583</v>
+        <v>7.72195697087913</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.190589060135297</v>
+        <v>7.183123769531821</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.484378576630301</v>
+        <v>7.498324905734012</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.39169039602125</v>
+        <v>7.379090454992723</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.570733026107878</v>
+        <v>7.583775990300519</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.367608131389522</v>
+        <v>7.318934450759617</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.496902741798366</v>
+        <v>7.472386030391709</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.483121659581336</v>
+        <v>7.489423258405512</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>7.209531672183249</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>6.95454729872823</v>
+        <v>6.954547298728229</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.365517426909688</v>
+        <v>6.418918995944416</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.421569446206812</v>
+        <v>6.431764386945439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.048930056327658</v>
+        <v>7.018171417860147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.899536645695786</v>
+        <v>6.895398875135896</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.465943059201854</v>
+        <v>5.36543563924628</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.710748445753113</v>
+        <v>5.800622559887304</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.763830314142067</v>
+        <v>5.795292827098036</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>5.876817996844855</v>
+        <v>5.905636223868535</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.322165163593347</v>
+        <v>6.307804629074671</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.406815326983468</v>
+        <v>6.435965189625633</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.845306851420562</v>
+        <v>6.862891160978259</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.694787715214075</v>
+        <v>6.667039104629823</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.383761402113873</v>
+        <v>7.369220974582604</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.391598809387264</v>
+        <v>7.36221952576827</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.650020409852209</v>
+        <v>7.640893007789738</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.517641280480129</v>
+        <v>7.51374313949832</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.463914794801545</v>
+        <v>7.449160700784042</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.118127584212691</v>
+        <v>7.058387694302184</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.283746040032509</v>
+        <v>7.280310546676183</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.82408955907604</v>
+        <v>6.830535559694152</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.291839154206243</v>
+        <v>7.261289417959428</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.173136554519881</v>
+        <v>7.184611239847486</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.451145255875913</v>
+        <v>7.476881574933176</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.198462486112724</v>
+        <v>7.205398456618844</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.788490649428552</v>
+        <v>6.778474761479759</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.060009600782237</v>
+        <v>6.081481276129027</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.867403405925166</v>
+        <v>6.836855329861609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.312501020001108</v>
+        <v>6.338606052113455</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.47835263567451</v>
+        <v>6.494691889397688</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>5.648473691623919</v>
+        <v>5.555640432239286</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>6.005703260875047</v>
+        <v>5.975100067646975</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.493700136392773</v>
+        <v>6.486998795858801</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>6.811687140456658</v>
+        <v>6.820734875855633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.119529035015833</v>
+        <v>6.095982948825567</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6.728679414919152</v>
+        <v>6.718170222534021</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.448060040492108</v>
+        <v>6.430303151133676</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.255090116758144</v>
+        <v>7.234323418639382</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.798732137426504</v>
+        <v>6.796566471159228</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.38447339317741</v>
+        <v>7.382974528892372</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.851605590453918</v>
+        <v>6.836539767552852</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.401095624989705</v>
+        <v>7.403906940010692</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.914046021940032</v>
+        <v>6.935460976810027</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.124348551295205</v>
+        <v>7.127215677156695</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>7.02094724722567</v>
+        <v>7.044461471013414</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.217191580955268</v>
+        <v>7.217025151286184</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.739381566740675</v>
+        <v>6.747490549145103</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.245191647441571</v>
+        <v>7.212044677427235</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>6.847659571767703</v>
+        <v>6.844207282148418</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>6.657521222937128</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.666286643700164</v>
+        <v>6.666286643700162</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>6.292782908667023</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.388586812294381</v>
+        <v>6.327231921163103</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.108439646820215</v>
+        <v>6.112499536196091</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.270284101822326</v>
+        <v>6.265404983034985</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.263387119347952</v>
+        <v>6.277297608097087</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.721678467688983</v>
+        <v>5.731557003304829</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.229865634116831</v>
+        <v>5.20388351732795</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.074997793898567</v>
+        <v>6.078180345070771</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>5.555019381226723</v>
+        <v>5.604575081873677</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.110309552518524</v>
+        <v>6.169431975172684</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.660682422578236</v>
+        <v>5.637357904215615</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.288320425514874</v>
+        <v>6.292497607410718</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>5.87929240776024</v>
+        <v>5.893352748666312</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.473067970911057</v>
+        <v>7.419363477698697</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.027655025014371</v>
+        <v>7.047159458228428</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.99314271832867</v>
+        <v>6.968071656221887</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.969869272024346</v>
+        <v>6.947868580214004</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.776894628307024</v>
+        <v>6.801085671703357</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.123149567743968</v>
+        <v>6.133069159512719</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.903069319344517</v>
+        <v>6.914850320512609</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.090403103678733</v>
+        <v>6.105914539833865</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.933770697428195</v>
+        <v>6.930224768682461</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.357359182938199</v>
+        <v>6.316278805308871</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6.84806782733152</v>
+        <v>6.837791784986806</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>6.289909027577636</v>
+        <v>6.313779730728079</v>
       </c>
     </row>
     <row r="19">
@@ -1385,31 +1385,31 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>2.804488208493619</v>
+        <v>2.865060350721417</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>6.545388426335808</v>
+        <v>6.585796912433434</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>6.102612829223164</v>
+        <v>6.102654741207105</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>6.298953867919729</v>
+        <v>6.28344835761656</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>5.63900888265177</v>
+        <v>5.633613415154936</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>6.59216896566712</v>
+        <v>6.599454691783202</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6.121134121338389</v>
+        <v>6.115696559724353</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6.298953867919729</v>
+        <v>6.28344835761656</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>5.628760931777832</v>
+        <v>5.607810929504589</v>
       </c>
     </row>
     <row r="21">
@@ -1423,31 +1423,31 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>7.036093052334921</v>
+        <v>7.053871885677303</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.00610357117552</v>
+        <v>7.018896783026236</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>6.652878050854175</v>
+        <v>6.644550921477812</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>6.813458082920222</v>
+        <v>6.810273727464653</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>6.114671552631475</v>
+        <v>6.090306169209842</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>7.038995349260134</v>
+        <v>7.020662541062571</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6.651146502247175</v>
+        <v>6.640836844003562</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6.813458082920222</v>
+        <v>6.810273727464653</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>6.081631766882607</v>
+        <v>6.088698860905861</v>
       </c>
     </row>
     <row r="22">
@@ -1483,7 +1483,7 @@
         <v>6.597081056800633</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>6.210734933891029</v>
+        <v>6.210734933891027</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>6.909645377879089</v>
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.914944131488869</v>
+        <v>6.907421735934256</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.507527577340699</v>
+        <v>6.496929798082591</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.9723589641269</v>
+        <v>6.987010557541403</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.864875011117589</v>
+        <v>6.864586624871523</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.596490902418055</v>
+        <v>6.584116242425157</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.014029798588669</v>
+        <v>6.04513242945557</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.381834663133372</v>
+        <v>6.427463434358901</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.062276440827974</v>
+        <v>6.064356599136608</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.781850323696799</v>
+        <v>6.78016399377278</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6.268851542846472</v>
+        <v>6.277464044975081</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6.70293172482817</v>
+        <v>6.690844726329972</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>6.461256035459945</v>
+        <v>6.472019943802299</v>
       </c>
     </row>
     <row r="24">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.246767443276102</v>
+        <v>7.262987658499419</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.935394011467467</v>
+        <v>6.936997267089422</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.287453239213942</v>
+        <v>7.272845838010008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.132631032303604</v>
+        <v>7.122877705130054</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.941260349355099</v>
+        <v>6.935273451414919</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.444275022226675</v>
+        <v>6.441774553510465</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.756886085176338</v>
+        <v>6.782604742685906</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.321806667227931</v>
+        <v>6.337155217440704</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.023717689146724</v>
+        <v>7.023738526519839</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6.593761674525934</v>
+        <v>6.588270400377686</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6.952505510018869</v>
+        <v>6.955493437656128</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>6.653947572401413</v>
+        <v>6.654798421579343</v>
       </c>
     </row>
     <row r="25">
